--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3702678.722783819</v>
+        <v>3700343.611581837</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>164.4827443892757</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>4.175888225758838</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>188.4649415276185</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>108.0165900216679</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>147.4967094207929</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.18609391402041</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.59538201795844</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>142.3478174606644</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>239.1293185150367</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.15794421524325</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603488</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206814</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1819.431341154229</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1450.468824213818</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1092.203125607067</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>706.414873008823</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>295.4289682192154</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>283.7646219839083</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.431341154229</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>683.7982798220356</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1632.228051159589</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1409.249570354325</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1120.131232858162</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>865.4467446522754</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>865.4467446522754</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>865.4467446522754</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="Y4" t="n">
-        <v>865.4467446522754</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1802.273730074954</v>
+        <v>603.6036480119292</v>
       </c>
       <c r="C5" t="n">
-        <v>1433.311213134542</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.045514527792</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>689.2572619295474</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>278.2713571399399</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>266.6070109046328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583057</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1380.342820051863</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139076</v>
+        <v>990.2034880760509</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.0678491612455</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>455.1316662333386</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210029</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W7" t="n">
-        <v>1072.849979202793</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X7" t="n">
-        <v>844.8604283047756</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.0678491612455</v>
+        <v>383.6188956900846</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758594</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.169188758594</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1519.903490151843</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.115237553599</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>723.1293327639917</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>308.0568826089881</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5136,10 +5136,10 @@
         <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,19 +5771,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,16 +6242,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6421,13 +6421,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>954.8188146898437</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>734.0262355463136</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6680,46 +6680,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,31 +7309,31 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,13 +7412,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878339</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.246340467744327e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>61.40075786968296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779005</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624215</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.574859240165097e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403375</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819057</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744317</v>
+        <v>8727.256391744264</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744235</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744306</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744306</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744206</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744257</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744348</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744262</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563222.0116216777</v>
+        <v>-563222.0116216778</v>
       </c>
       <c r="C6" t="n">
-        <v>551529.7719542419</v>
+        <v>551529.7719542411</v>
       </c>
       <c r="D6" t="n">
-        <v>391514.309206242</v>
+        <v>391514.3092062423</v>
       </c>
       <c r="E6" t="n">
-        <v>331527.0216824993</v>
+        <v>331492.2837570636</v>
       </c>
       <c r="F6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="G6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="H6" t="n">
-        <v>656939.4834898543</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="I6" t="n">
-        <v>656939.4834898547</v>
+        <v>656904.7455644184</v>
       </c>
       <c r="J6" t="n">
-        <v>489334.3056798719</v>
+        <v>489299.5677544361</v>
       </c>
       <c r="K6" t="n">
-        <v>656939.4834898547</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="L6" t="n">
-        <v>608645.5134816639</v>
+        <v>608610.7755562281</v>
       </c>
       <c r="M6" t="n">
-        <v>571884.4555543428</v>
+        <v>571849.7176289067</v>
       </c>
       <c r="N6" t="n">
-        <v>656939.4834898544</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="O6" t="n">
-        <v>656939.4834898544</v>
+        <v>656904.7455644185</v>
       </c>
       <c r="P6" t="n">
-        <v>656939.4834898545</v>
+        <v>656904.7455644188</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.784417372699</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>136.5358081731297</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.4865721359787</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.1197118244763</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>257.2563017493396</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>153.5218431416125</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,16 +27673,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>166.6458862679169</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.9276163186325</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>222.9250743103431</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4784458722838</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29986,10 +29986,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.184639007818955e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.184639007818955e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.184639007818955e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,7 +34793,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807079</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367747</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37789,7 +37789,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
